--- a/biology/Zoologie/Desis/Desis.xlsx
+++ b/biology/Zoologie/Desis/Desis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Desis est un genre d'araignées aranéomorphes de la famille des Desidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Desis est un genre d'araignées aranéomorphes de la famille des Desidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Océanie, en Asie, en Afrique et aux îles Galápagos[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Océanie, en Asie, en Afrique et aux îles Galápagos.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans l'estran[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans l'estran.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.5, 23/10/2022)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.5, 23/10/2022) :
 Desis bobmarleyi Baehr, Raven &amp; Harms, 2017
 Desis crosslandi Pocock, 1903
 Desis formidabilis (O. Pickard-Cambridge, 1891)
@@ -618,11 +636,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Walckenaer en 1837. Il est placé dans les Desidae par Pocock en 1895[4], dans les Agelenidae par Simon en 1898[5] puis dans les Desidae par Roth en 1967[6].
-Dandridgea[7] et Robsonia[8] ont été placés en synonymie par Pocock en 1895[4].
-Paradesis[9] a été placé en synonymie par Pocock en 1902[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Walckenaer en 1837. Il est placé dans les Desidae par Pocock en 1895, dans les Agelenidae par Simon en 1898 puis dans les Desidae par Roth en 1967.
+Dandridgea et Robsonia ont été placés en synonymie par Pocock en 1895.
+Paradesis a été placé en synonymie par Pocock en 1902.
 </t>
         </is>
       </c>
@@ -651,7 +671,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Walckenaer, 1837 : Histoire naturelle des insectes. Aptères. Paris, vol. 1, p. 1-682 (texte intégral).</t>
         </is>
